--- a/data/FHM/Folkhalsomyndigheten_Covid19_2020-04-29.xlsx
+++ b/data/FHM/Folkhalsomyndigheten_Covid19_2020-04-29.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="7005" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 28 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 29 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,13 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5276,7 +5278,7 @@
         <v>43931</v>
       </c>
       <c r="B68" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -5309,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="M68" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N68" s="2">
         <v>148</v>
@@ -5347,7 +5349,7 @@
         <v>43932</v>
       </c>
       <c r="B69" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -5383,7 +5385,7 @@
         <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="2">
         <v>22</v>
@@ -5560,7 +5562,7 @@
         <v>43935</v>
       </c>
       <c r="B72" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -5596,7 +5598,7 @@
         <v>12</v>
       </c>
       <c r="N72" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O72" s="2">
         <v>16</v>
@@ -6554,70 +6556,141 @@
         <v>43949</v>
       </c>
       <c r="B86" s="2">
-        <v>231</v>
+        <v>744</v>
       </c>
       <c r="C86" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2">
+        <v>16</v>
+      </c>
+      <c r="G86" s="2">
+        <v>33</v>
+      </c>
+      <c r="H86" s="2">
+        <v>11</v>
+      </c>
+      <c r="I86" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="2">
+        <v>21</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>34</v>
+      </c>
+      <c r="N86" s="2">
+        <v>222</v>
+      </c>
+      <c r="O86" s="2">
+        <v>55</v>
+      </c>
+      <c r="P86" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>17</v>
+      </c>
+      <c r="R86" s="2">
         <v>3</v>
       </c>
-      <c r="G86" s="2">
-        <v>25</v>
-      </c>
-      <c r="H86" s="2">
+      <c r="S86" s="2">
+        <v>4</v>
+      </c>
+      <c r="T86" s="2">
+        <v>21</v>
+      </c>
+      <c r="U86" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" s="2">
+        <v>72</v>
+      </c>
+      <c r="W86" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B87" s="2">
+        <v>169</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>79</v>
+      </c>
+      <c r="O87" s="2">
+        <v>14</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>6</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2">
         <v>5</v>
       </c>
-      <c r="I86" s="2">
-        <v>4</v>
-      </c>
-      <c r="J86" s="2">
-        <v>2</v>
-      </c>
-      <c r="K86" s="2">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2">
-        <v>0</v>
-      </c>
-      <c r="N86" s="2">
-        <v>88</v>
-      </c>
-      <c r="O86" s="2">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>2</v>
-      </c>
-      <c r="R86" s="2">
-        <v>0</v>
-      </c>
-      <c r="S86" s="2">
-        <v>1</v>
-      </c>
-      <c r="T86" s="2">
+      <c r="T87" s="2">
         <v>13</v>
       </c>
-      <c r="U86" s="2">
-        <v>22</v>
-      </c>
-      <c r="V86" s="2">
-        <v>39</v>
-      </c>
-      <c r="W86" s="2">
-        <v>27</v>
+      <c r="U87" s="2">
+        <v>18</v>
+      </c>
+      <c r="V87" s="2">
+        <v>13</v>
+      </c>
+      <c r="W87" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6627,13 +6700,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6753,7 +6828,7 @@
         <v>43914</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6761,7 +6836,7 @@
         <v>43915</v>
       </c>
       <c r="B16" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6809,7 +6884,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6857,7 +6932,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6865,7 +6940,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6873,7 +6948,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6881,7 +6956,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6889,7 +6964,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6905,7 +6980,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6913,7 +6988,7 @@
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6921,7 +6996,7 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6929,7 +7004,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6937,7 +7012,7 @@
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6945,7 +7020,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6953,7 +7028,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6961,7 +7036,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6969,7 +7044,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6977,7 +7052,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6985,7 +7060,7 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6993,7 +7068,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7001,7 +7076,7 @@
         <v>43945</v>
       </c>
       <c r="B46" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7009,7 +7084,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7017,7 +7092,7 @@
         <v>43947</v>
       </c>
       <c r="B48" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7025,7 +7100,7 @@
         <v>43948</v>
       </c>
       <c r="B49" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7033,15 +7108,23 @@
         <v>43949</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="2">
-        <v>18</v>
+      <c r="B52" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7051,14 +7134,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7185,7 +7267,7 @@
         <v>43910</v>
       </c>
       <c r="B16" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7193,7 +7275,7 @@
         <v>43911</v>
       </c>
       <c r="B17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7209,7 +7291,7 @@
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7217,7 +7299,7 @@
         <v>43914</v>
       </c>
       <c r="B20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7225,7 +7307,7 @@
         <v>43915</v>
       </c>
       <c r="B21" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7233,7 +7315,7 @@
         <v>43916</v>
       </c>
       <c r="B22" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7265,7 +7347,7 @@
         <v>43920</v>
       </c>
       <c r="B26" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7273,7 +7355,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7281,7 +7363,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7289,7 +7371,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7297,7 +7379,7 @@
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7305,7 +7387,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7329,7 +7411,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7337,7 +7419,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7345,7 +7427,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7369,7 +7451,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7385,7 +7467,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7401,7 +7483,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7417,7 +7499,7 @@
         <v>43939</v>
       </c>
       <c r="B45" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7425,7 +7507,7 @@
         <v>43940</v>
       </c>
       <c r="B46" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7449,7 +7531,7 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7457,7 +7539,7 @@
         <v>43944</v>
       </c>
       <c r="B50" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7465,7 +7547,7 @@
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7473,7 +7555,7 @@
         <v>43946</v>
       </c>
       <c r="B52" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7481,7 +7563,7 @@
         <v>43947</v>
       </c>
       <c r="B53" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7489,7 +7571,7 @@
         <v>43948</v>
       </c>
       <c r="B54" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7497,7 +7579,15 @@
         <v>43949</v>
       </c>
       <c r="B55" s="2">
-        <v>4</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7511,14 +7601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -7542,10 +7625,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
-        <v>40.098743438720703</v>
+        <v>41.978370666503906</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7559,16 +7642,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="C3" s="2">
-        <v>242.04246520996094</v>
+        <v>254.19667053222656</v>
       </c>
       <c r="D3" s="2">
         <v>39</v>
       </c>
       <c r="E3" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7576,13 +7659,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>58.640216827392578</v>
+        <v>65.341957092285156</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -7593,16 +7676,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="C5" s="2">
-        <v>185.81539916992188</v>
+        <v>190.3389892578125</v>
       </c>
       <c r="D5" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7610,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2">
-        <v>102.14229583740234</v>
+        <v>104.53858947753906</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -7627,10 +7710,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C7" s="2">
-        <v>220.16665649414063</v>
+        <v>224.75346374511719</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -7644,16 +7727,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="C8" s="2">
-        <v>195.82011413574219</v>
+        <v>200.49560546875</v>
       </c>
       <c r="D8" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7661,10 +7744,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2">
-        <v>61.520660400390625</v>
+        <v>63.150344848632813</v>
       </c>
       <c r="D9" s="2">
         <v>19</v>
@@ -7678,16 +7761,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C10" s="2">
-        <v>134.01565551757813</v>
+        <v>144.43910217285156</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7695,10 +7778,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2">
-        <v>97.163856506347656</v>
+        <v>97.963554382324219</v>
       </c>
       <c r="D11" s="2">
         <v>27</v>
@@ -7712,10 +7795,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="C12" s="2">
-        <v>51.748149871826172</v>
+        <v>54.143226623535156</v>
       </c>
       <c r="D12" s="2">
         <v>61</v>
@@ -7729,16 +7812,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>7622</v>
+        <v>7835</v>
       </c>
       <c r="C13" s="2">
-        <v>320.64535522460938</v>
+        <v>329.60592651367188</v>
       </c>
       <c r="D13" s="2">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="E13" s="2">
-        <v>1287</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7746,16 +7829,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1107</v>
+        <v>1176</v>
       </c>
       <c r="C14" s="2">
-        <v>372.05081176757813</v>
+        <v>395.240966796875</v>
       </c>
       <c r="D14" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7763,16 +7846,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>914</v>
+        <v>966</v>
       </c>
       <c r="C15" s="2">
-        <v>238.19886779785156</v>
+        <v>251.75065612792969</v>
       </c>
       <c r="D15" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7780,13 +7863,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2">
-        <v>52.051242828369141</v>
+        <v>59.487136840820313</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>8</v>
@@ -7797,16 +7880,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C17" s="2">
-        <v>110.03326416015625</v>
+        <v>111.50528717041016</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7814,16 +7897,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C18" s="2">
-        <v>89.668914794921875</v>
+        <v>92.929603576660156</v>
       </c>
       <c r="D18" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7831,16 +7914,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="C19" s="2">
-        <v>262.10372924804688</v>
+        <v>269.7166748046875</v>
       </c>
       <c r="D19" s="2">
         <v>33</v>
       </c>
       <c r="E19" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7848,16 +7931,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2212</v>
+        <v>2291</v>
       </c>
       <c r="C20" s="2">
-        <v>128.16642761230469</v>
+        <v>132.74380493164063</v>
       </c>
       <c r="D20" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E20" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7865,16 +7948,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>928</v>
+        <v>974</v>
       </c>
       <c r="C21" s="2">
-        <v>304.45693969726563</v>
+        <v>319.54855346679688</v>
       </c>
       <c r="D21" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7882,16 +7965,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1401</v>
+        <v>1423</v>
       </c>
       <c r="C22" s="2">
-        <v>300.96994018554688</v>
+        <v>305.69607543945313</v>
       </c>
       <c r="D22" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7905,13 +7988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7932,13 +8009,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>8828</v>
+        <v>9057</v>
       </c>
       <c r="C2" s="2">
-        <v>1028</v>
+        <v>1069</v>
       </c>
       <c r="D2" s="2">
-        <v>1337</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7946,13 +8023,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>10790</v>
+        <v>11242</v>
       </c>
       <c r="C3" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2">
-        <v>1018</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7978,15 +8055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8021,10 +8092,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -8035,10 +8106,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1486</v>
+        <v>1559</v>
       </c>
       <c r="C4" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -8049,13 +8120,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1980</v>
+        <v>2083</v>
       </c>
       <c r="C5" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8063,10 +8134,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2573</v>
+        <v>2684</v>
       </c>
       <c r="C6" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
@@ -8077,10 +8148,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>3443</v>
+        <v>3569</v>
       </c>
       <c r="C7" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D7" s="2">
         <v>81</v>
@@ -8091,13 +8162,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2585</v>
+        <v>2646</v>
       </c>
       <c r="C8" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D8" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8105,13 +8176,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2530</v>
+        <v>2596</v>
       </c>
       <c r="C9" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D9" s="2">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8119,13 +8190,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>3056</v>
+        <v>3148</v>
       </c>
       <c r="C10" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>938</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8133,13 +8204,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1622</v>
+        <v>1669</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8167,7 +8238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
